--- a/Documentation/MSYSADD1/PROPOSE/Event_Table_Propose(Student_Admin).xlsx
+++ b/Documentation/MSYSADD1/PROPOSE/Event_Table_Propose(Student_Admin).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\LSC-LMS\Proposed System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-3\Documentation\MSYSADD1\PROPOSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>EVENT</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>Admin account</t>
+  </si>
+  <si>
+    <t>Look up for students' schedule</t>
+  </si>
+  <si>
+    <t>Admin checks students' schedule</t>
+  </si>
+  <si>
+    <t>Students' schedule</t>
+  </si>
+  <si>
+    <t>System       Admin</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -441,7 +453,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -456,13 +468,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -471,13 +522,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -486,52 +608,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -543,101 +626,61 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -649,9 +692,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,67 +718,73 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1076,34 +1125,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="62.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1329,10 +1378,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,25 +1394,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="62.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1380,22 +1429,22 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1403,7 +1452,7 @@
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1495,22 +1544,22 @@
       <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="32" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1518,27 +1567,50 @@
       <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G10" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>

--- a/Documentation/MSYSADD1/PROPOSE/Event_Table_Propose(Student_Admin).xlsx
+++ b/Documentation/MSYSADD1/PROPOSE/Event_Table_Propose(Student_Admin).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Videos\Project---LSC-2\Documentation\MSYSADD1\PROPOSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Event Table (P) Student" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <t>Schedule inquiry</t>
   </si>
   <si>
-    <t>Students updates the profile inforamtion</t>
-  </si>
-  <si>
-    <t>Updates profile inforamation</t>
-  </si>
-  <si>
     <t>Grades inquiry</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>Schedulechange request</t>
+  </si>
+  <si>
+    <t>Students updates the profile information</t>
+  </si>
+  <si>
+    <t>Updates profile information</t>
   </si>
 </sst>
 </file>
@@ -584,6 +584,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -619,6 +636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,8 +810,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -839,10 +873,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -850,22 +884,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -873,22 +907,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.7">
@@ -899,19 +933,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -919,22 +953,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -954,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1004,22 +1038,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -1027,22 +1061,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -1050,22 +1084,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
